--- a/speccpu-int.xlsx
+++ b/speccpu-int.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\docs\forms\cur\講義\先端計算機構成論\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251E99C-470E-42A2-AD85-3260D8048887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828EEABD-44A9-4B64-907E-8F08236237A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="155">
   <si>
     <t xml:space="preserve">Hardware Vendor	</t>
   </si>
@@ -499,6 +499,10 @@
   </si>
   <si>
     <t>Intel Xeon E-2388G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 7950X</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -625,9 +629,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$K$2:$L$29</c:f>
+              <c:f>Sheet1!$K$2:$L$30</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Pentium Pro Processor</c:v>
@@ -712,6 +716,9 @@
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>Intel Xeon E-2388G</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>AMD Ryzen 9 7950X</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -798,6 +805,9 @@
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>23</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -805,10 +815,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$29</c:f>
+              <c:f>Sheet1!$M$2:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>6.5210303227910008E-2</c:v>
                 </c:pt>
@@ -892,6 +902,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.40625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,9 +956,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$K$2:$L$29</c:f>
+              <c:f>Sheet1!$K$2:$L$30</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Pentium Pro Processor</c:v>
@@ -1030,6 +1043,9 @@
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>Intel Xeon E-2388G</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>AMD Ryzen 9 7950X</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1116,6 +1132,9 @@
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>23</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1123,10 +1142,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$29</c:f>
+              <c:f>Sheet1!$N$2:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>4.8473453186891842E-2</c:v>
                 </c:pt>
@@ -1210,6 +1229,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>14.262590272905907</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.402154169457525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2275,7 +2297,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K1:N29"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2381,11 +2403,11 @@
         <v>21164</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M29" si="0">S3/$S$10</f>
+        <f t="shared" ref="M3:M30" si="0">S3/$S$10</f>
         <v>0.15625</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N29" si="1">O3/$O$10</f>
+        <f t="shared" ref="N3:N30" si="1">O3/$O$10</f>
         <v>7.5496354778101016E-2</v>
       </c>
       <c r="O3">
@@ -2585,7 +2607,7 @@
         <v>0.33101705622236266</v>
       </c>
       <c r="O7">
-        <f>P7*($O$36/$P$36)</f>
+        <f t="shared" ref="O7:O13" si="2">P7*($O$36/$P$36)</f>
         <v>55.245248868778283</v>
       </c>
       <c r="P7">
@@ -2638,7 +2660,7 @@
         <v>0.49905243209096656</v>
       </c>
       <c r="O8">
-        <f>P8*($O$36/$P$36)</f>
+        <f t="shared" si="2"/>
         <v>83.289592760180994</v>
       </c>
       <c r="P8">
@@ -2691,7 +2713,7 @@
         <v>0.69425142135186368</v>
       </c>
       <c r="O9">
-        <f>P9*($O$36/$P$36)</f>
+        <f t="shared" si="2"/>
         <v>115.86742081447964</v>
       </c>
       <c r="P9">
@@ -2720,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <f>P10*($O$36/$P$36)</f>
+        <f t="shared" si="2"/>
         <v>166.89547511312216</v>
       </c>
       <c r="P10">
@@ -2773,7 +2795,7 @@
         <v>1.0543272267845862</v>
       </c>
       <c r="O11">
-        <f>P11*($O$36/$P$36)</f>
+        <f t="shared" si="2"/>
         <v>175.96244343891402</v>
       </c>
       <c r="P11">
@@ -2826,7 +2848,7 @@
         <v>1.1762476310802275</v>
       </c>
       <c r="O12">
-        <f>P12*($O$36/$P$36)</f>
+        <f t="shared" si="2"/>
         <v>196.310407239819</v>
       </c>
       <c r="P12">
@@ -2879,7 +2901,7 @@
         <v>1.963360707517372</v>
       </c>
       <c r="O13">
-        <f>P13*($O$36/$P$36)</f>
+        <f t="shared" si="2"/>
         <v>327.67601809954749</v>
       </c>
       <c r="P13">
@@ -2935,11 +2957,11 @@
         <v>2.5682880606443463</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O29" si="2">P14*$O$13/$P$13</f>
+        <f t="shared" ref="O14:O30" si="3">P14*$O$13/$P$13</f>
         <v>428.63565610859729</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:P24" si="3">Q14*($P$13/$Q$13)</f>
+        <f t="shared" ref="P14:P24" si="4">Q14*($P$13/$Q$13)</f>
         <v>4065.6</v>
       </c>
       <c r="Q14">
@@ -2992,11 +3014,11 @@
         <v>3.2050536955148448</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>534.90895927601798</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5073.5999999999995</v>
       </c>
       <c r="Q15">
@@ -3049,11 +3071,11 @@
         <v>3.629564118761845</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>605.75782805429867</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5745.6</v>
       </c>
       <c r="Q16">
@@ -3106,11 +3128,11 @@
         <v>4.8500315855969678</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>809.44832579185515</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7677.6</v>
       </c>
       <c r="Q17">
@@ -3163,11 +3185,11 @@
         <v>6.1447883765003146</v>
       </c>
       <c r="O18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1025.5373755656105</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9727.1999999999989</v>
       </c>
       <c r="Q18">
@@ -3220,11 +3242,11 @@
         <v>5.9749842072015156</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>997.1978280542985</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9458.4</v>
       </c>
       <c r="Q19">
@@ -3277,11 +3299,11 @@
         <v>6.7284902084649385</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1122.9545701357463</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10651.199999999999</v>
       </c>
       <c r="Q20">
@@ -3334,11 +3356,11 @@
         <v>7.0150347441566634</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1170.7775565610857</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11104.8</v>
       </c>
       <c r="Q21">
@@ -3367,11 +3389,11 @@
         <v>8.4583701831964628</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1411.6637104072397</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13389.6</v>
       </c>
       <c r="Q22">
@@ -3424,11 +3446,11 @@
         <v>8.2142766898294379</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1370.9256108597285</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13003.2</v>
       </c>
       <c r="Q23">
@@ -3481,11 +3503,11 @@
         <v>8.9253316487681609</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1489.5974660633483</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14128.8</v>
       </c>
       <c r="Q24">
@@ -3541,7 +3563,7 @@
         <v>9.5980953408863652</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1601.8786820982741</v>
       </c>
       <c r="P25">
@@ -3602,7 +3624,7 @@
         <v>11.123026376354291</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1856.3827717774391</v>
       </c>
       <c r="P26">
@@ -3663,7 +3685,7 @@
         <v>11.840640981280375</v>
       </c>
       <c r="O27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1976.1494022146933</v>
       </c>
       <c r="P27">
@@ -3724,7 +3746,7 @@
         <v>14.083186621674388</v>
       </c>
       <c r="O28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2350.4201223311129</v>
       </c>
       <c r="P28">
@@ -3785,7 +3807,7 @@
         <v>14.262590272905907</v>
       </c>
       <c r="O29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2380.361779940426</v>
       </c>
       <c r="P29">
@@ -3830,6 +3852,38 @@
       </c>
       <c r="I30">
         <v>40969</v>
+      </c>
+      <c r="K30" s="1">
+        <v>23</v>
+      </c>
+      <c r="L30" t="s">
+        <v>154</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1.40625</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>17.402154169457525</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>2904.3407881034132</v>
+      </c>
+      <c r="P30">
+        <f>Q30*$P$24/$Q$24</f>
+        <v>27547.610050251256</v>
+      </c>
+      <c r="Q30">
+        <f>R30*$Q$24/$R$24</f>
+        <v>163.97386934673366</v>
+      </c>
+      <c r="R30">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="S30">
+        <v>4500</v>
       </c>
     </row>
     <row r="31" spans="1:19">

--- a/speccpu-int.xlsx
+++ b/speccpu-int.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\docs\forms\cur\講義\先端計算機構成論\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\docs\forms\cur\200_講義\先端計算機構成論\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828EEABD-44A9-4B64-907E-8F08236237A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B62934-5E9E-46A9-9285-D8A8D0E8E67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="157">
   <si>
     <t xml:space="preserve">Hardware Vendor	</t>
   </si>
@@ -503,6 +503,14 @@
   </si>
   <si>
     <t>AMD Ryzen 9 7950X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMD EPYC 9575F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMD EPYC 4585PX</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -629,9 +637,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$K$2:$L$30</c:f>
+              <c:f>Sheet1!$K$2:$L$32</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Pentium Pro Processor</c:v>
@@ -719,6 +727,12 @@
                   </c:pt>
                   <c:pt idx="28">
                     <c:v>AMD Ryzen 9 7950X</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>AMD EPYC 9575F</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>AMD EPYC 4585PX</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -808,6 +822,12 @@
                   </c:pt>
                   <c:pt idx="28">
                     <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>25</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -815,10 +835,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$30</c:f>
+              <c:f>Sheet1!$M$2:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>6.5210303227910008E-2</c:v>
                 </c:pt>
@@ -905,6 +925,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.40625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.03125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.34375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,9 +982,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$K$2:$L$30</c:f>
+              <c:f>Sheet1!$K$2:$L$32</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Pentium Pro Processor</c:v>
@@ -1046,6 +1072,12 @@
                   </c:pt>
                   <c:pt idx="28">
                     <c:v>AMD Ryzen 9 7950X</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>AMD EPYC 9575F</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>AMD EPYC 4585PX</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1135,6 +1167,12 @@
                   </c:pt>
                   <c:pt idx="28">
                     <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>25</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1142,10 +1180,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$30</c:f>
+              <c:f>Sheet1!$N$2:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4.8473453186891842E-2</c:v>
                 </c:pt>
@@ -1232,6 +1270,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>17.402154169457525</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.106488856156968</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.541718066009135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,6 +1449,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1412,7 +1457,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2297,7 +2341,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2403,11 +2447,11 @@
         <v>21164</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M30" si="0">S3/$S$10</f>
+        <f t="shared" ref="M3:M32" si="0">S3/$S$10</f>
         <v>0.15625</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N30" si="1">O3/$O$10</f>
+        <f t="shared" ref="N3:N32" si="1">O3/$O$10</f>
         <v>7.5496354778101016E-2</v>
       </c>
       <c r="O3">
@@ -2957,7 +3001,7 @@
         <v>2.5682880606443463</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O30" si="3">P14*$O$13/$P$13</f>
+        <f t="shared" ref="O14:O32" si="3">P14*$O$13/$P$13</f>
         <v>428.63565610859729</v>
       </c>
       <c r="P14">
@@ -3567,11 +3611,11 @@
         <v>1601.8786820982741</v>
       </c>
       <c r="P25">
-        <f>Q25*$P$24/$Q$24</f>
+        <f t="shared" ref="P25:P32" si="5">Q25*$P$24/$Q$24</f>
         <v>15193.784924623116</v>
       </c>
       <c r="Q25">
-        <f>R25*$Q$24/$R$24</f>
+        <f t="shared" ref="Q25:Q32" si="6">R25*$Q$24/$R$24</f>
         <v>90.439195979899495</v>
       </c>
       <c r="R25">
@@ -3628,11 +3672,11 @@
         <v>1856.3827717774391</v>
       </c>
       <c r="P26">
-        <f>Q26*$P$24/$Q$24</f>
+        <f t="shared" si="5"/>
         <v>17607.750753768843</v>
       </c>
       <c r="Q26">
-        <f>R26*$Q$24/$R$24</f>
+        <f t="shared" si="6"/>
         <v>104.80804020100503</v>
       </c>
       <c r="R26">
@@ -3689,11 +3733,11 @@
         <v>1976.1494022146933</v>
       </c>
       <c r="P27">
-        <f>Q27*$P$24/$Q$24</f>
+        <f t="shared" si="5"/>
         <v>18743.734673366835</v>
       </c>
       <c r="Q27">
-        <f>R27*$Q$24/$R$24</f>
+        <f t="shared" si="6"/>
         <v>111.56984924623116</v>
       </c>
       <c r="R27">
@@ -3750,11 +3794,11 @@
         <v>2350.4201223311129</v>
       </c>
       <c r="P28">
-        <f>Q28*$P$24/$Q$24</f>
+        <f t="shared" si="5"/>
         <v>22293.684422110557</v>
       </c>
       <c r="Q28">
-        <f>R28*$Q$24/$R$24</f>
+        <f t="shared" si="6"/>
         <v>132.70050251256282</v>
       </c>
       <c r="R28">
@@ -3811,11 +3855,11 @@
         <v>2380.361779940426</v>
       </c>
       <c r="P29">
-        <f>Q29*$P$24/$Q$24</f>
+        <f t="shared" si="5"/>
         <v>22577.68040201005</v>
       </c>
       <c r="Q29">
-        <f>R29*$Q$24/$R$24</f>
+        <f t="shared" si="6"/>
         <v>134.39095477386934</v>
       </c>
       <c r="R29">
@@ -3872,11 +3916,11 @@
         <v>2904.3407881034132</v>
       </c>
       <c r="P30">
-        <f>Q30*$P$24/$Q$24</f>
+        <f t="shared" si="5"/>
         <v>27547.610050251256</v>
       </c>
       <c r="Q30">
-        <f>R30*$Q$24/$R$24</f>
+        <f t="shared" si="6"/>
         <v>163.97386934673366</v>
       </c>
       <c r="R30">
@@ -3914,6 +3958,38 @@
       <c r="I31">
         <v>41548</v>
       </c>
+      <c r="K31" s="1">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>155</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1.03125</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>19.106488856156968</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>3188.786535391891</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>30245.57185929648</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>180.03316582914573</v>
+      </c>
+      <c r="R31">
+        <v>21.3</v>
+      </c>
+      <c r="S31">
+        <v>3300</v>
+      </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
@@ -3942,6 +4018,38 @@
       </c>
       <c r="I32">
         <v>41944</v>
+      </c>
+      <c r="K32" s="1">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>156</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>1.34375</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>20.541718066009135</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>3428.3197962663994</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>32517.539698492459</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>193.55678391959796</v>
+      </c>
+      <c r="R32">
+        <v>22.9</v>
+      </c>
+      <c r="S32">
+        <v>4300</v>
       </c>
     </row>
     <row r="33" spans="1:19">
